--- a/biology/Zoologie/Elagatis/Elagatis.xlsx
+++ b/biology/Zoologie/Elagatis/Elagatis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elagatis bipinnulata · Coureur arc-en-ciel, Comète saumon, Saumon des Caraïbes
-Elagatis bipinnulata, communément nommé Coureur arc-en-ciel, Comète saumon[2] ou Saumon des caraïbes[3], est une espèce de poissons marins de la famille des Carangidae. C'est la seule espèce de son genre Elagatis (monotypique).
+Elagatis bipinnulata, communément nommé Coureur arc-en-ciel, Comète saumon ou Saumon des caraïbes, est une espèce de poissons marins de la famille des Carangidae. C'est la seule espèce de son genre Elagatis (monotypique).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Coureur arc-en-ciel a une distribution dite circumtropicale mais semble être absent du Golfe Persique[4]. Il vit habituellement entre 0 et 10 m de profondeur mais on peut parfois le trouver jusqu'à près de 160 m de profondeur.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Coureur arc-en-ciel a une distribution dite circumtropicale mais semble être absent du Golfe Persique. Il vit habituellement entre 0 et 10 m de profondeur mais on peut parfois le trouver jusqu'à près de 160 m de profondeur.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il peut atteindre une taille maximale de 120 cm de long mais sa taille commune est souvent inférieure à 80 cm[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il peut atteindre une taille maximale de 120 cm de long mais sa taille commune est souvent inférieure à 80 cm.
 C'est un poisson grégaire formant des bancs de plusieurs centaines d'individus. Il se nourrit de zooplancton,de petits poissons et d'invertébrés. 
-Sa reproduction est ovipare. Ce poisson devient mature vers l'âge de 3 ans lorsqu'il atteint une taille de 60 à 65 cm et il pond alors de 1800 à 95000 œufs par an[6].
+Sa reproduction est ovipare. Ce poisson devient mature vers l'âge de 3 ans lorsqu'il atteint une taille de 60 à 65 cm et il pond alors de 1800 à 95000 œufs par an.
 </t>
         </is>
       </c>
